--- a/Reportes/EXERCISE 5 -DOOR PANELS/Reporte_EXERCISE 5 -DOOR PANELS.xlsx
+++ b/Reportes/EXERCISE 5 -DOOR PANELS/Reporte_EXERCISE 5 -DOOR PANELS.xlsx
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MERGED-DEFAULT+GRP2-8</t>
+          <t>MERGED-DEFAULT+GRP2-784</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MERGED-DEFAULT+GRP2-544</t>
+          <t>MERGED-DEFAULT+GRP2-152</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -516,7 +516,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MERGED-DEFAULT+GRP2-896</t>
+          <t>MERGED-DEFAULT+GRP2-648</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MERGED-GRP1-224</t>
+          <t>MERGED-GRP1-0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -564,7 +564,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MERGED-GRP1-32</t>
+          <t>MERGED-GRP1-808</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MERGED-GRP2-32</t>
+          <t>MERGED-GRP2-808</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MERGED-GRP2-784</t>
+          <t>MERGED-GRP2-944</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MERGED-GRP2-296</t>
+          <t>MERGED-GRP2-456</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -660,7 +660,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MERGED-GRP2-744</t>
+          <t>MERGED-GRP2-904</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MERGED-GRP2-192</t>
+          <t>MERGED-GRP2-352</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MERGED-GRP2-640</t>
+          <t>MERGED-GRP2-800</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MERGED-GRP2-152</t>
+          <t>MERGED-GRP2-312</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
